--- a/stats_code/output/run3_individual_variability_choices/choice_isc_statistical_results.xlsx
+++ b/stats_code/output/run3_individual_variability_choices/choice_isc_statistical_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Analysis</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>p_value</t>
+  </si>
+  <si>
+    <t>ci_lower</t>
+  </si>
+  <si>
+    <t>ci_upper</t>
+  </si>
+  <si>
+    <t>cohens_d</t>
   </si>
   <si>
     <t>raw</t>
@@ -416,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,13 +453,22 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>153</v>
@@ -467,13 +485,22 @@
       <c r="G2">
         <v>3.248410117820705E-17</v>
       </c>
+      <c r="H2">
+        <v>0.1647540318686629</v>
+      </c>
+      <c r="I2">
+        <v>0.2507312755212536</v>
+      </c>
+      <c r="J2">
+        <v>0.7718734491578284</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>1378</v>
@@ -490,19 +517,28 @@
       <c r="G3">
         <v>3.967680437557186E-202</v>
       </c>
+      <c r="H3">
+        <v>0.2409573902428733</v>
+      </c>
+      <c r="I3">
+        <v>0.2685741837368816</v>
+      </c>
+      <c r="J3">
+        <v>0.9749968932945231</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>-2.105451643845729</v>
@@ -510,13 +546,22 @@
       <c r="G4">
         <v>0.03541474260535955</v>
       </c>
+      <c r="H4">
+        <v>-0.0908316254144782</v>
+      </c>
+      <c r="I4">
+        <v>-0.003214641175360196</v>
+      </c>
+      <c r="J4">
+        <v>-0.1794165670039957</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>153</v>
@@ -533,13 +578,22 @@
       <c r="G5">
         <v>3.898200264323046E-16</v>
       </c>
+      <c r="H5">
+        <v>0.1825096626266403</v>
+      </c>
+      <c r="I5">
+        <v>0.2832641141160643</v>
+      </c>
+      <c r="J5">
+        <v>0.7383881877924648</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>1378</v>
@@ -556,25 +610,43 @@
       <c r="G6">
         <v>6.902808810441581E-162</v>
       </c>
+      <c r="H6">
+        <v>0.2709766310293969</v>
+      </c>
+      <c r="I6">
+        <v>0.3073686195525071</v>
+      </c>
+      <c r="J6">
+        <v>0.8398210771658902</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F7">
         <v>-1.93380878000706</v>
       </c>
       <c r="G7">
         <v>0.05332100632417207</v>
+      </c>
+      <c r="H7">
+        <v>-0.1133779451479335</v>
+      </c>
+      <c r="I7">
+        <v>0.0008064713087341177</v>
+      </c>
+      <c r="J7">
+        <v>-0.1647899791786784</v>
       </c>
     </row>
   </sheetData>
